--- a/Excel2.xlsx
+++ b/Excel2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerson Lima\Documents\projetos\compare_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2857273E-B319-4FE5-A2B5-4C0D7BCC3391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC8115F-B544-496B-AEF0-41C2989249D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19755" yWindow="-16200" windowWidth="13935" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,10 @@
     <t>Linha B4</t>
   </si>
   <si>
-    <t>Linha BA</t>
-  </si>
-  <si>
-    <t>Linha BB</t>
+    <t>Linha B2</t>
+  </si>
+  <si>
+    <t>Linha B3</t>
   </si>
 </sst>
 </file>
@@ -374,8 +374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
